--- a/document/AEL LOG SOFTWARE (5).xlsx
+++ b/document/AEL LOG SOFTWARE (5).xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Working\Projects\GitHub\ael\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="SALE" sheetId="7" r:id="rId1"/>
@@ -1051,7 +1051,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1126,6 +1126,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
@@ -1287,7 +1294,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1512,10 +1519,13 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1883,8 +1893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2077,8 +2087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="49.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2621,8 +2631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3266,8 +3276,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:E8"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4242,8 +4252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4260,20 +4270,20 @@
       <c r="A2" s="68"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="86" t="s">
         <v>301</v>
       </c>
-      <c r="B3" s="87"/>
+      <c r="B3" s="86"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="69"/>
       <c r="B4" s="69"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="86" t="s">
+      <c r="A5" s="87" t="s">
         <v>304</v>
       </c>
-      <c r="B5" s="86"/>
+      <c r="B5" s="87"/>
       <c r="D5" t="s">
         <v>310</v>
       </c>
@@ -4283,10 +4293,10 @@
       <c r="B6" s="69"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="86" t="s">
+      <c r="A7" s="87" t="s">
         <v>305</v>
       </c>
-      <c r="B7" s="86"/>
+      <c r="B7" s="87"/>
       <c r="D7" t="s">
         <v>311</v>
       </c>
@@ -4296,20 +4306,20 @@
       <c r="B8" s="69"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="87" t="s">
+      <c r="A9" s="88" t="s">
         <v>308</v>
       </c>
-      <c r="B9" s="87"/>
+      <c r="B9" s="88"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="69"/>
       <c r="B10" s="69"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="86" t="s">
+      <c r="A11" s="87" t="s">
         <v>313</v>
       </c>
-      <c r="B11" s="86"/>
+      <c r="B11" s="87"/>
       <c r="D11" t="s">
         <v>312</v>
       </c>
@@ -4322,30 +4332,30 @@
       <c r="B12" s="69"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="87" t="s">
+      <c r="A13" s="86" t="s">
         <v>309</v>
       </c>
-      <c r="B13" s="87"/>
+      <c r="B13" s="86"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="69"/>
       <c r="B14" s="69"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="87" t="s">
+      <c r="A15" s="86" t="s">
         <v>306</v>
       </c>
-      <c r="B15" s="87"/>
+      <c r="B15" s="86"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="69"/>
       <c r="B16" s="69"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="86" t="s">
+      <c r="A17" s="87" t="s">
         <v>307</v>
       </c>
-      <c r="B17" s="86"/>
+      <c r="B17" s="87"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
